--- a/medicine/Bioéthique/HazteOir.org/HazteOir.org.xlsx
+++ b/medicine/Bioéthique/HazteOir.org/HazteOir.org.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HazteOir.org est une association espagnole conservatrice fondée par Ignacio Arsuaga en février 2001[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HazteOir.org est une association espagnole conservatrice fondée par Ignacio Arsuaga en février 2001.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association se rattache au mouvement pro-vie et promeut l'opposition au mariage homosexuel ainsi qu'à l'euthanasie.
-Elle intervient également aux Nations unies en tant qu'organisation non gouvernementale[4]. Elle est également un cercle de réflexion et d'influence (think tank) conservateur.
+Elle intervient également aux Nations unies en tant qu'organisation non gouvernementale. Elle est également un cercle de réflexion et d'influence (think tank) conservateur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2012, HazteOir a organisé le VIe congrès mondial des familles à Madrid. Lors du VIIe congrès, réuni à Sydney, Ignacio Arsuaga, Président de HazteOir et de CitizenGo a été élu « Homme de l'année pour la défense de la famille naturelle »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2012, HazteOir a organisé le VIe congrès mondial des familles à Madrid. Lors du VIIe congrès, réuni à Sydney, Ignacio Arsuaga, Président de HazteOir et de CitizenGo a été élu « Homme de l'année pour la défense de la famille naturelle ».
 </t>
         </is>
       </c>
@@ -574,16 +590,18 @@
           <t>Membres et sympathisants connus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Louis Alphonse de Bourbon[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louis Alphonse de Bourbon,.
 Rocío Monasterio.
-David Álvarez Díez, propriétaire du groupe Eulen[8].
-Esther Alcocer, l'une des plus grandes fortunes d'Espagne, notamment propriétaire de Fomento de Construcciones y Contratas[8].
-Juan Miguel Villar Mir, ministre des Finances de 1975 à 1976, propriétaire du groupe Obrascón Huarte Lain[8].
-Bernard Meunier, PDG de Nestlé Péninsule Ibérique[8].
-Ignacio Esquer De Oñate, secrétaire du Conseil d'administration de Fertiberia[8].
-Javier Javaloyes, PDG de Agencia Negociadora et du Groupe React[8].</t>
+David Álvarez Díez, propriétaire du groupe Eulen.
+Esther Alcocer, l'une des plus grandes fortunes d'Espagne, notamment propriétaire de Fomento de Construcciones y Contratas.
+Juan Miguel Villar Mir, ministre des Finances de 1975 à 1976, propriétaire du groupe Obrascón Huarte Lain.
+Bernard Meunier, PDG de Nestlé Péninsule Ibérique.
+Ignacio Esquer De Oñate, secrétaire du Conseil d'administration de Fertiberia.
+Javier Javaloyes, PDG de Agencia Negociadora et du Groupe React.</t>
         </is>
       </c>
     </row>
